--- a/biology/Médecine/Murat_Günel/Murat_Günel.xlsx
+++ b/biology/Médecine/Murat_Günel/Murat_Günel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murat_G%C3%BCnel</t>
+          <t>Murat_Günel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Murat Günel (né en 1967), est un scientifique et neurochirurgien turc. Il est actuellement[Quand ?] directeur du département des maladies vasculaires et de la neurochirurgie et directeur du département de la neuro-génétique au sein de la Faculté de Médecine de l'Université Yale, aux États-Unis. Il est également le directeur de l'Association Médicale Turco-Américaine.
 Diplômé de lycée Kadiköy à Istanbul en 1984, il a effectué ses études de médecine à l'Université de médecine d'Istanbul, et y a obtenu son diplôme de docteur en médecine en 1991.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Murat_G%C3%BCnel</t>
+          <t>Murat_Günel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2009 : "Prix Kristal Martı"
-En 2010 : "Le 10 plus grands inventeurs de l'année 2010" -Revue Science 2010[1].</t>
+En 2010 : "Le 10 plus grands inventeurs de l'année 2010" -Revue Science 2010.</t>
         </is>
       </c>
     </row>
